--- a/src/main/webapp/sql/import_excel/항공사 목록.xlsx
+++ b/src/main/webapp/sql/import_excel/항공사 목록.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>FI_ID</t>
   </si>
@@ -25,49 +25,61 @@
     <t>대한항공</t>
   </si>
   <si>
-    <t>koreanAir.jpg</t>
+    <t>koreanAir.png</t>
   </si>
   <si>
     <t>아시아나</t>
   </si>
   <si>
-    <t>asianaAir.jpg</t>
+    <t>asiana.jpg</t>
   </si>
   <si>
     <t>제주항공</t>
   </si>
   <si>
-    <t>jejuAir.jpg</t>
-  </si>
-  <si>
-    <t>부산에어</t>
-  </si>
-  <si>
-    <t>airBusan.jpg</t>
-  </si>
-  <si>
-    <t>서울항공</t>
-  </si>
-  <si>
-    <t>seoulAir.JPG</t>
-  </si>
-  <si>
-    <t>이스타항공</t>
-  </si>
-  <si>
-    <t>estarAir.jpg</t>
-  </si>
-  <si>
-    <t>일본항공</t>
-  </si>
-  <si>
-    <t>jalAir.PNG</t>
-  </si>
-  <si>
-    <t>진에어</t>
-  </si>
-  <si>
-    <t>jinAir.jpg</t>
+    <t>jejuAir.gif</t>
+  </si>
+  <si>
+    <t>아메리칸항공</t>
+  </si>
+  <si>
+    <t>americanAir.jpg</t>
+  </si>
+  <si>
+    <t>루프트한자</t>
+  </si>
+  <si>
+    <t>lufthansaAir.png</t>
+  </si>
+  <si>
+    <t>중국동방항공</t>
+  </si>
+  <si>
+    <t>chinaEast.jpg</t>
+  </si>
+  <si>
+    <t>일본 항공</t>
+  </si>
+  <si>
+    <t>jalAir.gif</t>
+  </si>
+  <si>
+    <t>퀀타스항공</t>
+  </si>
+  <si>
+    <t>qantasAir.png</t>
+  </si>
+  <si>
+    <t>에미레이트</t>
+  </si>
+  <si>
+    <t>emirateAir.png</t>
+  </si>
+  <si>
+    <t>에어아시아</t>
+  </si>
+  <si>
+    <t>airAsia.jpg</t>
   </si>
 </sst>
 </file>
@@ -193,7 +205,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -204,7 +216,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -215,13 +227,35 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/sql/import_excel/항공사 목록.xlsx
+++ b/src/main/webapp/sql/import_excel/항공사 목록.xlsx
@@ -25,61 +25,61 @@
     <t>대한항공</t>
   </si>
   <si>
-    <t>koreanAir.png</t>
+    <t>koreanAir.PNG</t>
   </si>
   <si>
     <t>아시아나</t>
   </si>
   <si>
-    <t>asiana.jpg</t>
+    <t>asiana.PNG</t>
   </si>
   <si>
     <t>제주항공</t>
   </si>
   <si>
-    <t>jejuAir.gif</t>
+    <t>jejuAir.PNG</t>
   </si>
   <si>
     <t>아메리칸항공</t>
   </si>
   <si>
-    <t>americanAir.jpg</t>
+    <t>americanAir.PNG</t>
   </si>
   <si>
     <t>루프트한자</t>
   </si>
   <si>
-    <t>lufthansaAir.png</t>
+    <t>lufthansa.PNG</t>
   </si>
   <si>
     <t>중국동방항공</t>
   </si>
   <si>
-    <t>chinaEast.jpg</t>
+    <t>chinaAir.PNG</t>
   </si>
   <si>
     <t>일본 항공</t>
   </si>
   <si>
-    <t>jalAir.gif</t>
+    <t>jalAir.PNG</t>
   </si>
   <si>
     <t>퀀타스항공</t>
   </si>
   <si>
-    <t>qantasAir.png</t>
+    <t>qantasAir.PNG</t>
   </si>
   <si>
     <t>에미레이트</t>
   </si>
   <si>
-    <t>emirateAir.png</t>
+    <t>emirates.PNG</t>
   </si>
   <si>
     <t>에어아시아</t>
   </si>
   <si>
-    <t>airAsia.jpg</t>
+    <t>airAsia.PNG</t>
   </si>
 </sst>
 </file>
